--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Pdgfb-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.2118441050803</v>
+        <v>41.23709466666667</v>
       </c>
       <c r="H2">
-        <v>14.2118441050803</v>
+        <v>123.711284</v>
       </c>
       <c r="I2">
-        <v>0.8873718784764713</v>
+        <v>0.956365997213294</v>
       </c>
       <c r="J2">
-        <v>0.8873718784764713</v>
+        <v>0.9563659972132939</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N2">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q2">
-        <v>141.8294150777628</v>
+        <v>707.8978227081733</v>
       </c>
       <c r="R2">
-        <v>141.8294150777628</v>
+        <v>6371.08040437356</v>
       </c>
       <c r="S2">
-        <v>0.02974281698837884</v>
+        <v>0.05358952845084657</v>
       </c>
       <c r="T2">
-        <v>0.02974281698837884</v>
+        <v>0.05358952845084657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.2118441050803</v>
+        <v>41.23709466666667</v>
       </c>
       <c r="H3">
-        <v>14.2118441050803</v>
+        <v>123.711284</v>
       </c>
       <c r="I3">
-        <v>0.8873718784764713</v>
+        <v>0.956365997213294</v>
       </c>
       <c r="J3">
-        <v>0.8873718784764713</v>
+        <v>0.9563659972132939</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N3">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q3">
-        <v>3633.468361949027</v>
+        <v>10575.01809575824</v>
       </c>
       <c r="R3">
-        <v>3633.468361949027</v>
+        <v>95175.16286182414</v>
       </c>
       <c r="S3">
-        <v>0.7619687669392257</v>
+        <v>0.8005537168384206</v>
       </c>
       <c r="T3">
-        <v>0.7619687669392257</v>
+        <v>0.8005537168384205</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.2118441050803</v>
+        <v>41.23709466666667</v>
       </c>
       <c r="H4">
-        <v>14.2118441050803</v>
+        <v>123.711284</v>
       </c>
       <c r="I4">
-        <v>0.8873718784764713</v>
+        <v>0.956365997213294</v>
       </c>
       <c r="J4">
-        <v>0.8873718784764713</v>
+        <v>0.9563659972132939</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N4">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q4">
-        <v>456.1586626893263</v>
+        <v>1350.324692344127</v>
       </c>
       <c r="R4">
-        <v>456.1586626893263</v>
+        <v>12152.92223109714</v>
       </c>
       <c r="S4">
-        <v>0.09566029454886671</v>
+        <v>0.1022227519240267</v>
       </c>
       <c r="T4">
-        <v>0.09566029454886671</v>
+        <v>0.1022227519240267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -717,49 +717,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.80381342226958</v>
+        <v>0.030543</v>
       </c>
       <c r="H5">
-        <v>1.80381342226958</v>
+        <v>0.091629</v>
       </c>
       <c r="I5">
-        <v>0.1126281215235287</v>
+        <v>0.0007083497731593903</v>
       </c>
       <c r="J5">
-        <v>0.1126281215235287</v>
+        <v>0.0007083497731593902</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N5">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q5">
-        <v>18.00145010727069</v>
+        <v>0.5243173257899999</v>
       </c>
       <c r="R5">
-        <v>18.00145010727069</v>
+        <v>4.71885593211</v>
       </c>
       <c r="S5">
-        <v>0.003775054954379004</v>
+        <v>3.969205349467248E-05</v>
       </c>
       <c r="T5">
-        <v>0.003775054954379004</v>
+        <v>3.969205349467248E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.80381342226958</v>
+        <v>0.030543</v>
       </c>
       <c r="H6">
-        <v>1.80381342226958</v>
+        <v>0.091629</v>
       </c>
       <c r="I6">
-        <v>0.1126281215235287</v>
+        <v>0.0007083497731593903</v>
       </c>
       <c r="J6">
-        <v>0.1126281215235287</v>
+        <v>0.0007083497731593902</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N6">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q6">
-        <v>461.1716081470827</v>
+        <v>7.832578417795999</v>
       </c>
       <c r="R6">
-        <v>461.1716081470827</v>
+        <v>70.493205760164</v>
       </c>
       <c r="S6">
-        <v>0.09671155122394377</v>
+        <v>0.000592944589599342</v>
       </c>
       <c r="T6">
-        <v>0.09671155122394377</v>
+        <v>0.0005929445895993419</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.030543</v>
+      </c>
+      <c r="H7">
+        <v>0.091629</v>
+      </c>
+      <c r="I7">
+        <v>0.0007083497731593903</v>
+      </c>
+      <c r="J7">
+        <v>0.0007083497731593902</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>32.74538866666666</v>
+      </c>
+      <c r="N7">
+        <v>98.236166</v>
+      </c>
+      <c r="O7">
+        <v>0.1068866440482915</v>
+      </c>
+      <c r="P7">
+        <v>0.1068866440482915</v>
+      </c>
+      <c r="Q7">
+        <v>1.000142406046</v>
+      </c>
+      <c r="R7">
+        <v>9.001281654413999</v>
+      </c>
+      <c r="S7">
+        <v>7.57131300653758E-05</v>
+      </c>
+      <c r="T7">
+        <v>7.571313006537579E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.850891</v>
+      </c>
+      <c r="H8">
+        <v>5.552673</v>
+      </c>
+      <c r="I8">
+        <v>0.0429256530135467</v>
+      </c>
+      <c r="J8">
+        <v>0.04292565301354669</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>17.16653</v>
+      </c>
+      <c r="N8">
+        <v>51.49959</v>
+      </c>
+      <c r="O8">
+        <v>0.0560345397128279</v>
+      </c>
+      <c r="P8">
+        <v>0.0560345397128279</v>
+      </c>
+      <c r="Q8">
+        <v>31.77337587823</v>
+      </c>
+      <c r="R8">
+        <v>285.9603829040699</v>
+      </c>
+      <c r="S8">
+        <v>0.002405319208486653</v>
+      </c>
+      <c r="T8">
+        <v>0.002405319208486652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.80381342226958</v>
-      </c>
-      <c r="H7">
-        <v>1.80381342226958</v>
-      </c>
-      <c r="I7">
-        <v>0.1126281215235287</v>
-      </c>
-      <c r="J7">
-        <v>0.1126281215235287</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>32.0970775725202</v>
-      </c>
-      <c r="N7">
-        <v>32.0970775725202</v>
-      </c>
-      <c r="O7">
-        <v>0.1078018098940727</v>
-      </c>
-      <c r="P7">
-        <v>0.1078018098940727</v>
-      </c>
-      <c r="Q7">
-        <v>57.89713934093984</v>
-      </c>
-      <c r="R7">
-        <v>57.89713934093984</v>
-      </c>
-      <c r="S7">
-        <v>0.01214151534520596</v>
-      </c>
-      <c r="T7">
-        <v>0.01214151534520596</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.850891</v>
+      </c>
+      <c r="H9">
+        <v>5.552673</v>
+      </c>
+      <c r="I9">
+        <v>0.0429256530135467</v>
+      </c>
+      <c r="J9">
+        <v>0.04292565301354669</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>256.4443053333333</v>
+      </c>
+      <c r="N9">
+        <v>769.332916</v>
+      </c>
+      <c r="O9">
+        <v>0.8370788162388805</v>
+      </c>
+      <c r="P9">
+        <v>0.8370788162388805</v>
+      </c>
+      <c r="Q9">
+        <v>474.6504567427186</v>
+      </c>
+      <c r="R9">
+        <v>4271.854110684468</v>
+      </c>
+      <c r="S9">
+        <v>0.0359321548108606</v>
+      </c>
+      <c r="T9">
+        <v>0.03593215481086059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.850891</v>
+      </c>
+      <c r="H10">
+        <v>5.552673</v>
+      </c>
+      <c r="I10">
+        <v>0.0429256530135467</v>
+      </c>
+      <c r="J10">
+        <v>0.04292565301354669</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>32.74538866666666</v>
+      </c>
+      <c r="N10">
+        <v>98.236166</v>
+      </c>
+      <c r="O10">
+        <v>0.1068866440482915</v>
+      </c>
+      <c r="P10">
+        <v>0.1068866440482915</v>
+      </c>
+      <c r="Q10">
+        <v>60.60814517463533</v>
+      </c>
+      <c r="R10">
+        <v>545.4733065717179</v>
+      </c>
+      <c r="S10">
+        <v>0.004588178994199439</v>
+      </c>
+      <c r="T10">
+        <v>0.004588178994199438</v>
       </c>
     </row>
   </sheetData>
